--- a/yf sp.xlsx
+++ b/yf sp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t xml:space="preserve">マヌカ</t>
   </si>
@@ -142,6 +142,9 @@
   </si>
   <si>
     <t xml:space="preserve">狐雪</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ユギ」「ミヨ」</t>
   </si>
   <si>
     <t xml:space="preserve">Cyberpunk
@@ -180,9 +183,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Cyberpunk-Body</t>
-  </si>
-  <si>
     <t xml:space="preserve">恶堕战斗员套装</t>
   </si>
   <si>
@@ -190,6 +190,38 @@
   </si>
   <si>
     <t xml:space="preserve">断罪セーラー</t>
+  </si>
+  <si>
+    <t xml:space="preserve">兔子警官</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">赛博人偶</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <rFont val="DejaVu Sans"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">兔子警官</t>
+    </r>
   </si>
 </sst>
 </file>
@@ -199,7 +231,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="9">
     <font>
       <sz val="10"/>
       <name val="思源黑体 CN"/>
@@ -242,8 +274,20 @@
       <family val="2"/>
       <charset val="1"/>
     </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="DejaVu Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="16"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -284,6 +328,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF81D41A"/>
         <bgColor rgb="FF77BC65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
     <fill>
@@ -327,7 +377,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -356,19 +406,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -380,20 +426,32 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -579,12 +637,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AH7"/>
+  <dimension ref="A1:AI8"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="0" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="AH1" activeCellId="0" sqref="AH1"/>
+      <selection pane="topRight" activeCell="F12" activeCellId="0" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -679,44 +737,51 @@
       <c r="AA1" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="AB1" s="7" t="s">
+      <c r="AB1" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="AC1" s="8" t="s">
+      <c r="AC1" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="7" t="s">
+      <c r="AD1" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="9" t="s">
+      <c r="AE1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="7" t="s">
+      <c r="AF1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="AG1" s="9" t="s">
+      <c r="AG1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AH1" s="10" t="s">
+      <c r="AH1" s="9" t="s">
         <v>32</v>
+      </c>
+      <c r="AI1" s="2" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="41" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
-        <v>33</v>
-      </c>
+      <c r="A2" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="B2" s="11"/>
       <c r="C2" s="12"/>
+      <c r="D2" s="11"/>
       <c r="F2" s="12"/>
       <c r="G2" s="13"/>
       <c r="I2" s="12"/>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
-      <c r="M2" s="14"/>
+      <c r="M2" s="13"/>
       <c r="R2" s="12"/>
+      <c r="X2" s="11"/>
+      <c r="AI2" s="13"/>
     </row>
     <row r="3" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="15" t="s">
-        <v>34</v>
+      <c r="A3" s="14" t="s">
+        <v>35</v>
       </c>
       <c r="B3" s="12"/>
       <c r="D3" s="12"/>
@@ -729,60 +794,81 @@
       <c r="S3" s="12"/>
       <c r="X3" s="12"/>
     </row>
-    <row r="4" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="16" t="s">
-        <v>35</v>
+    <row r="4" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="14" t="s">
+        <v>36</v>
       </c>
       <c r="B4" s="12"/>
       <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
       <c r="I4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="12"/>
+      <c r="S4" s="12"/>
       <c r="X4" s="12"/>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="5" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="15" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B5" s="12"/>
-      <c r="D5" s="12"/>
+      <c r="C5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
       <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
       <c r="M5" s="12"/>
-      <c r="S5" s="12"/>
+      <c r="R5" s="12"/>
       <c r="X5" s="12"/>
     </row>
-    <row r="6" customFormat="false" ht="19.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="16" t="s">
-        <v>37</v>
+    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="14" t="s">
+        <v>38</v>
       </c>
       <c r="B6" s="12"/>
-      <c r="C6" s="12"/>
-      <c r="E6" s="12"/>
+      <c r="D6" s="12"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
       <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
       <c r="K6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="R6" s="12"/>
+      <c r="L6" s="12"/>
       <c r="X6" s="12"/>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="F7" s="12"/>
-      <c r="G7" s="12"/>
-      <c r="H7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="X7" s="12"/>
+    <row r="7" customFormat="false" ht="36.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="B7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="13"/>
+      <c r="I7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="13"/>
+      <c r="S7" s="13"/>
+      <c r="X7" s="17"/>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="13"/>
+      <c r="S8" s="13"/>
+      <c r="X8" s="17"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/yf sp.xlsx
+++ b/yf sp.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
   <si>
     <t xml:space="preserve">マヌカ</t>
   </si>
@@ -199,10 +199,42 @@
       <rPr>
         <b val="true"/>
         <sz val="16"/>
+        <rFont val="思源黑体 CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">赛博人偶</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">_</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
+        <rFont val="思源黑体 CN"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">兔子警官</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="16"/>
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">赛博人偶</t>
+      <t xml:space="preserve">寄生触手服</t>
     </r>
     <r>
       <rPr>
@@ -211,7 +243,7 @@
         <rFont val="Times New Roman"/>
         <family val="1"/>
       </rPr>
-      <t xml:space="preserve">_</t>
+      <t xml:space="preserve">β/</t>
     </r>
     <r>
       <rPr>
@@ -220,7 +252,7 @@
         <rFont val="DejaVu Sans"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve">兔子警官</t>
+      <t xml:space="preserve">璀璨魔女</t>
     </r>
   </si>
 </sst>
@@ -446,11 +478,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -637,12 +669,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AI8"/>
+  <dimension ref="A1:AI9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="1" ySplit="0" topLeftCell="B1" activePane="topRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="F12" activeCellId="0" sqref="F12"/>
+      <selection pane="topRight" activeCell="A2" activeCellId="1" sqref="B9:AV9 A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -844,31 +876,45 @@
       <c r="A7" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="G7" s="17"/>
+      <c r="B7" s="13"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="17"/>
-      <c r="K7" s="17"/>
+      <c r="I7" s="13"/>
+      <c r="K7" s="13"/>
       <c r="L7" s="13"/>
       <c r="S7" s="13"/>
-      <c r="X7" s="17"/>
+      <c r="X7" s="13"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="B8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="G8" s="17"/>
+      <c r="B8" s="13"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="13"/>
-      <c r="I8" s="17"/>
-      <c r="K8" s="17"/>
+      <c r="I8" s="13"/>
+      <c r="K8" s="13"/>
       <c r="L8" s="13"/>
       <c r="S8" s="13"/>
-      <c r="X8" s="17"/>
+      <c r="X8" s="13"/>
+    </row>
+    <row r="9" customFormat="false" ht="31.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="18"/>
+      <c r="D9" s="18"/>
+      <c r="E9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="13"/>
+      <c r="I9" s="18"/>
+      <c r="L9" s="13"/>
+      <c r="S9" s="13"/>
+      <c r="X9" s="18"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
